--- a/natmiOut/OldD2/LR-pairs_lrc2p/Lgals1-Cd69.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Lgals1-Cd69.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.0030457740495</v>
+        <v>28.5964765</v>
       </c>
       <c r="H2">
-        <v>28.0030457740495</v>
+        <v>57.192953</v>
       </c>
       <c r="I2">
-        <v>0.03684545808452985</v>
+        <v>0.03476572333614217</v>
       </c>
       <c r="J2">
-        <v>0.03684545808452985</v>
+        <v>0.02571318923534191</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0721803891926332</v>
+        <v>0.07266549999999999</v>
       </c>
       <c r="N2">
-        <v>0.0721803891926332</v>
+        <v>0.145331</v>
       </c>
       <c r="O2">
-        <v>0.002494010937866957</v>
+        <v>0.002429343391095317</v>
       </c>
       <c r="P2">
-        <v>0.002494010937866957</v>
+        <v>0.001622508061129047</v>
       </c>
       <c r="Q2">
-        <v>2.021270742550015</v>
+        <v>2.07797726311075</v>
       </c>
       <c r="R2">
-        <v>2.021270742550015</v>
+        <v>8.311909052442999</v>
       </c>
       <c r="S2">
-        <v>9.189297547353595E-05</v>
+        <v>8.445788022330521E-05</v>
       </c>
       <c r="T2">
-        <v>9.189297547353595E-05</v>
+        <v>4.171985681167889E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.0030457740495</v>
+        <v>28.5964765</v>
       </c>
       <c r="H3">
-        <v>28.0030457740495</v>
+        <v>57.192953</v>
       </c>
       <c r="I3">
-        <v>0.03684545808452985</v>
+        <v>0.03476572333614217</v>
       </c>
       <c r="J3">
-        <v>0.03684545808452985</v>
+        <v>0.02571318923534191</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0164606016034156</v>
+        <v>0.03238966666666667</v>
       </c>
       <c r="N3">
-        <v>0.0164606016034156</v>
+        <v>0.09716900000000001</v>
       </c>
       <c r="O3">
-        <v>0.0005687544899935063</v>
+        <v>0.001082847054743268</v>
       </c>
       <c r="P3">
-        <v>0.0005687544899935063</v>
+        <v>0.001084816630944866</v>
       </c>
       <c r="Q3">
-        <v>0.4609469801688397</v>
+        <v>0.9262303416761668</v>
       </c>
       <c r="R3">
-        <v>0.4609469801688397</v>
+        <v>5.557382050057001</v>
       </c>
       <c r="S3">
-        <v>2.095601972144388E-05</v>
+        <v>3.764596112056086E-05</v>
       </c>
       <c r="T3">
-        <v>2.095601972144388E-05</v>
+        <v>2.789409531713142E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.0030457740495</v>
+        <v>28.5964765</v>
       </c>
       <c r="H4">
-        <v>28.0030457740495</v>
+        <v>57.192953</v>
       </c>
       <c r="I4">
-        <v>0.03684545808452985</v>
+        <v>0.03476572333614217</v>
       </c>
       <c r="J4">
-        <v>0.03684545808452985</v>
+        <v>0.02571318923534191</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.6364862150641</v>
+        <v>10.87028266666667</v>
       </c>
       <c r="N4">
-        <v>10.6364862150641</v>
+        <v>32.610848</v>
       </c>
       <c r="O4">
-        <v>0.3675169011633482</v>
+        <v>0.3634138532811946</v>
       </c>
       <c r="P4">
-        <v>0.3675169011633482</v>
+        <v>0.364074861937605</v>
       </c>
       <c r="Q4">
-        <v>297.8540103554865</v>
+        <v>310.8517828256907</v>
       </c>
       <c r="R4">
-        <v>297.8540103554865</v>
+        <v>1865.110696954144</v>
       </c>
       <c r="S4">
-        <v>0.01354132857717044</v>
+        <v>0.01263434547969537</v>
       </c>
       <c r="T4">
-        <v>0.01354132857717044</v>
+        <v>0.009361525820832618</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.0030457740495</v>
+        <v>28.5964765</v>
       </c>
       <c r="H5">
-        <v>28.0030457740495</v>
+        <v>57.192953</v>
       </c>
       <c r="I5">
-        <v>0.03684545808452985</v>
+        <v>0.03476572333614217</v>
       </c>
       <c r="J5">
-        <v>0.03684545808452985</v>
+        <v>0.02571318923534191</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.1581705777213</v>
+        <v>18.75506266666667</v>
       </c>
       <c r="N5">
-        <v>18.1581705777213</v>
+        <v>56.265188</v>
       </c>
       <c r="O5">
-        <v>0.6274096958888786</v>
+        <v>0.6270167760332644</v>
       </c>
       <c r="P5">
-        <v>0.6274096958888786</v>
+        <v>0.62815724856322</v>
       </c>
       <c r="Q5">
-        <v>508.4840818609284</v>
+        <v>536.3287088033607</v>
       </c>
       <c r="R5">
-        <v>508.4840818609284</v>
+        <v>3217.972252820164</v>
       </c>
       <c r="S5">
-        <v>0.0231171976517013</v>
+        <v>0.02179869176269229</v>
       </c>
       <c r="T5">
-        <v>0.0231171976517013</v>
+        <v>0.01615192620185778</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,57 +785,57 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.0030457740495</v>
+        <v>28.5964765</v>
       </c>
       <c r="H6">
-        <v>28.0030457740495</v>
+        <v>57.192953</v>
       </c>
       <c r="I6">
-        <v>0.03684545808452985</v>
+        <v>0.03476572333614217</v>
       </c>
       <c r="J6">
-        <v>0.03684545808452985</v>
+        <v>0.02571318923534191</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0581908429145628</v>
+        <v>0.09092433333333333</v>
       </c>
       <c r="N6">
-        <v>0.0581908429145628</v>
+        <v>0.272773</v>
       </c>
       <c r="O6">
-        <v>0.002010637519912812</v>
+        <v>0.003039770293648031</v>
       </c>
       <c r="P6">
-        <v>0.002010637519912812</v>
+        <v>0.003045299291674547</v>
       </c>
       <c r="Q6">
-        <v>1.629520837767026</v>
+        <v>2.600115561444833</v>
       </c>
       <c r="R6">
-        <v>1.629520837767026</v>
+        <v>15.600693368669</v>
       </c>
       <c r="S6">
-        <v>7.408286046313056E-05</v>
+        <v>0.0001056798130343911</v>
       </c>
       <c r="T6">
-        <v>7.408286046313056E-05</v>
+        <v>7.83043569650803E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>240.747380062863</v>
+        <v>28.5964765</v>
       </c>
       <c r="H7">
-        <v>240.747380062863</v>
+        <v>57.192953</v>
       </c>
       <c r="I7">
-        <v>0.3167672392724817</v>
+        <v>0.03476572333614217</v>
       </c>
       <c r="J7">
-        <v>0.3167672392724817</v>
+        <v>0.02571318923534191</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.0721803891926332</v>
+        <v>0.0902555</v>
       </c>
       <c r="N7">
-        <v>0.0721803891926332</v>
+        <v>0.180511</v>
       </c>
       <c r="O7">
-        <v>0.002494010937866957</v>
+        <v>0.003017409946054226</v>
       </c>
       <c r="P7">
-        <v>0.002494010937866957</v>
+        <v>0.002015265515426615</v>
       </c>
       <c r="Q7">
-        <v>17.37723959004423</v>
+        <v>2.58098928474575</v>
       </c>
       <c r="R7">
-        <v>17.37723959004423</v>
+        <v>10.323957138983</v>
       </c>
       <c r="S7">
-        <v>0.0007900209595034889</v>
+        <v>0.0001049024393762449</v>
       </c>
       <c r="T7">
-        <v>0.0007900209595034889</v>
+        <v>5.181890355762341E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>240.747380062863</v>
+        <v>258.8358916666667</v>
       </c>
       <c r="H8">
-        <v>240.747380062863</v>
+        <v>776.5076750000001</v>
       </c>
       <c r="I8">
-        <v>0.3167672392724817</v>
+        <v>0.3146757258415036</v>
       </c>
       <c r="J8">
-        <v>0.3167672392724817</v>
+        <v>0.3491074991349087</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0164606016034156</v>
+        <v>0.07266549999999999</v>
       </c>
       <c r="N8">
-        <v>0.0164606016034156</v>
+        <v>0.145331</v>
       </c>
       <c r="O8">
-        <v>0.0005687544899935063</v>
+        <v>0.002429343391095317</v>
       </c>
       <c r="P8">
-        <v>0.0005687544899935063</v>
+        <v>0.001622508061129047</v>
       </c>
       <c r="Q8">
-        <v>3.962846710280867</v>
+        <v>18.80843948590417</v>
       </c>
       <c r="R8">
-        <v>3.962846710280867</v>
+        <v>112.850636915425</v>
       </c>
       <c r="S8">
-        <v>0.0001801627896190713</v>
+        <v>0.0007644553949111785</v>
       </c>
       <c r="T8">
-        <v>0.0001801627896190713</v>
+        <v>0.0005664297315469912</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>240.747380062863</v>
+        <v>258.8358916666667</v>
       </c>
       <c r="H9">
-        <v>240.747380062863</v>
+        <v>776.5076750000001</v>
       </c>
       <c r="I9">
-        <v>0.3167672392724817</v>
+        <v>0.3146757258415036</v>
       </c>
       <c r="J9">
-        <v>0.3167672392724817</v>
+        <v>0.3491074991349087</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.6364862150641</v>
+        <v>0.03238966666666667</v>
       </c>
       <c r="N9">
-        <v>10.6364862150641</v>
+        <v>0.09716900000000001</v>
       </c>
       <c r="O9">
-        <v>0.3675169011633482</v>
+        <v>0.001082847054743268</v>
       </c>
       <c r="P9">
-        <v>0.3675169011633482</v>
+        <v>0.001084816630944866</v>
       </c>
       <c r="Q9">
-        <v>2560.70618935144</v>
+        <v>8.383608252452779</v>
       </c>
       <c r="R9">
-        <v>2560.70618935144</v>
+        <v>75.45247427207501</v>
       </c>
       <c r="S9">
-        <v>0.1164173141674913</v>
+        <v>0.0003407456829266723</v>
       </c>
       <c r="T9">
-        <v>0.1164173141674913</v>
+        <v>0.0003787176210491196</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>240.747380062863</v>
+        <v>258.8358916666667</v>
       </c>
       <c r="H10">
-        <v>240.747380062863</v>
+        <v>776.5076750000001</v>
       </c>
       <c r="I10">
-        <v>0.3167672392724817</v>
+        <v>0.3146757258415036</v>
       </c>
       <c r="J10">
-        <v>0.3167672392724817</v>
+        <v>0.3491074991349087</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.1581705777213</v>
+        <v>10.87028266666667</v>
       </c>
       <c r="N10">
-        <v>18.1581705777213</v>
+        <v>32.610848</v>
       </c>
       <c r="O10">
-        <v>0.6274096958888786</v>
+        <v>0.3634138532811946</v>
       </c>
       <c r="P10">
-        <v>0.6274096958888786</v>
+        <v>0.364074861937605</v>
       </c>
       <c r="Q10">
-        <v>4371.531993320967</v>
+        <v>2813.619306695378</v>
       </c>
       <c r="R10">
-        <v>4371.531993320967</v>
+        <v>25322.5737602584</v>
       </c>
       <c r="S10">
-        <v>0.1987428372595074</v>
+        <v>0.1143575180621176</v>
       </c>
       <c r="T10">
-        <v>0.1987428372595074</v>
+        <v>0.1271012645489245</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>240.747380062863</v>
+        <v>258.8358916666667</v>
       </c>
       <c r="H11">
-        <v>240.747380062863</v>
+        <v>776.5076750000001</v>
       </c>
       <c r="I11">
-        <v>0.3167672392724817</v>
+        <v>0.3146757258415036</v>
       </c>
       <c r="J11">
-        <v>0.3167672392724817</v>
+        <v>0.3491074991349087</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.0581908429145628</v>
+        <v>18.75506266666667</v>
       </c>
       <c r="N11">
-        <v>0.0581908429145628</v>
+        <v>56.265188</v>
       </c>
       <c r="O11">
-        <v>0.002010637519912812</v>
+        <v>0.6270167760332644</v>
       </c>
       <c r="P11">
-        <v>0.002010637519912812</v>
+        <v>0.62815724856322</v>
       </c>
       <c r="Q11">
-        <v>14.00929297533061</v>
+        <v>4854.483368590878</v>
       </c>
       <c r="R11">
-        <v>14.00929297533061</v>
+        <v>43690.35031731791</v>
       </c>
       <c r="S11">
-        <v>0.0006369040963604509</v>
+        <v>0.1973069591130669</v>
       </c>
       <c r="T11">
-        <v>0.0006369040963604509</v>
+        <v>0.219294406109371</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>155.503326902189</v>
+        <v>258.8358916666667</v>
       </c>
       <c r="H12">
-        <v>155.503326902189</v>
+        <v>776.5076750000001</v>
       </c>
       <c r="I12">
-        <v>0.2046060046328666</v>
+        <v>0.3146757258415036</v>
       </c>
       <c r="J12">
-        <v>0.2046060046328666</v>
+        <v>0.3491074991349087</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0721803891926332</v>
+        <v>0.09092433333333333</v>
       </c>
       <c r="N12">
-        <v>0.0721803891926332</v>
+        <v>0.272773</v>
       </c>
       <c r="O12">
-        <v>0.002494010937866957</v>
+        <v>0.003039770293648031</v>
       </c>
       <c r="P12">
-        <v>0.002494010937866957</v>
+        <v>0.003045299291674547</v>
       </c>
       <c r="Q12">
-        <v>11.22429065654927</v>
+        <v>23.53448089253056</v>
       </c>
       <c r="R12">
-        <v>11.22429065654927</v>
+        <v>211.810328032775</v>
       </c>
       <c r="S12">
-        <v>0.0005102896135076267</v>
+        <v>0.0009565419235451345</v>
       </c>
       <c r="T12">
-        <v>0.0005102896135076267</v>
+        <v>0.00106313681983381</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>155.503326902189</v>
+        <v>258.8358916666667</v>
       </c>
       <c r="H13">
-        <v>155.503326902189</v>
+        <v>776.5076750000001</v>
       </c>
       <c r="I13">
-        <v>0.2046060046328666</v>
+        <v>0.3146757258415036</v>
       </c>
       <c r="J13">
-        <v>0.2046060046328666</v>
+        <v>0.3491074991349087</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M13">
-        <v>0.0164606016034156</v>
+        <v>0.0902555</v>
       </c>
       <c r="N13">
-        <v>0.0164606016034156</v>
+        <v>0.180511</v>
       </c>
       <c r="O13">
-        <v>0.0005687544899935063</v>
+        <v>0.003017409946054226</v>
       </c>
       <c r="P13">
-        <v>0.0005687544899935063</v>
+        <v>0.002015265515426615</v>
       </c>
       <c r="Q13">
-        <v>2.559678312142633</v>
+        <v>23.36136282032083</v>
       </c>
       <c r="R13">
-        <v>2.559678312142633</v>
+        <v>140.168176921925</v>
       </c>
       <c r="S13">
-        <v>0.000116370583814575</v>
+        <v>0.0009495056649359857</v>
       </c>
       <c r="T13">
-        <v>0.000116370583814575</v>
+        <v>0.0007035443041834085</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>155.503326902189</v>
+        <v>168.738088</v>
       </c>
       <c r="H14">
-        <v>155.503326902189</v>
+        <v>506.214264</v>
       </c>
       <c r="I14">
-        <v>0.2046060046328666</v>
+        <v>0.2051407166780708</v>
       </c>
       <c r="J14">
-        <v>0.2046060046328666</v>
+        <v>0.2275871848033678</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.6364862150641</v>
+        <v>0.07266549999999999</v>
       </c>
       <c r="N14">
-        <v>10.6364862150641</v>
+        <v>0.145331</v>
       </c>
       <c r="O14">
-        <v>0.3675169011633482</v>
+        <v>0.002429343391095317</v>
       </c>
       <c r="P14">
-        <v>0.3675169011633482</v>
+        <v>0.001622508061129047</v>
       </c>
       <c r="Q14">
-        <v>1654.00899299174</v>
+        <v>12.261437533564</v>
       </c>
       <c r="R14">
-        <v>1654.00899299174</v>
+        <v>73.56862520138399</v>
       </c>
       <c r="S14">
-        <v>0.0751961647820848</v>
+        <v>0.0004983572443064282</v>
       </c>
       <c r="T14">
-        <v>0.0751961647820848</v>
+        <v>0.0003692620419531304</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>155.503326902189</v>
+        <v>168.738088</v>
       </c>
       <c r="H15">
-        <v>155.503326902189</v>
+        <v>506.214264</v>
       </c>
       <c r="I15">
-        <v>0.2046060046328666</v>
+        <v>0.2051407166780708</v>
       </c>
       <c r="J15">
-        <v>0.2046060046328666</v>
+        <v>0.2275871848033678</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>18.1581705777213</v>
+        <v>0.03238966666666667</v>
       </c>
       <c r="N15">
-        <v>18.1581705777213</v>
+        <v>0.09716900000000001</v>
       </c>
       <c r="O15">
-        <v>0.6274096958888786</v>
+        <v>0.001082847054743268</v>
       </c>
       <c r="P15">
-        <v>0.6274096958888786</v>
+        <v>0.001084816630944866</v>
       </c>
       <c r="Q15">
-        <v>2823.655935293105</v>
+        <v>5.465370424290668</v>
       </c>
       <c r="R15">
-        <v>2823.655935293105</v>
+        <v>49.188333818616</v>
       </c>
       <c r="S15">
-        <v>0.1283717911437453</v>
+        <v>0.0002221360208627723</v>
       </c>
       <c r="T15">
-        <v>0.1283717911437453</v>
+        <v>0.0002468903630646162</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>155.503326902189</v>
+        <v>168.738088</v>
       </c>
       <c r="H16">
-        <v>155.503326902189</v>
+        <v>506.214264</v>
       </c>
       <c r="I16">
-        <v>0.2046060046328666</v>
+        <v>0.2051407166780708</v>
       </c>
       <c r="J16">
-        <v>0.2046060046328666</v>
+        <v>0.2275871848033678</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.0581908429145628</v>
+        <v>10.87028266666667</v>
       </c>
       <c r="N16">
-        <v>0.0581908429145628</v>
+        <v>32.610848</v>
       </c>
       <c r="O16">
-        <v>0.002010637519912812</v>
+        <v>0.3634138532811946</v>
       </c>
       <c r="P16">
-        <v>0.002010637519912812</v>
+        <v>0.364074861937605</v>
       </c>
       <c r="Q16">
-        <v>9.048869668457188</v>
+        <v>1834.230713192875</v>
       </c>
       <c r="R16">
-        <v>9.048869668457188</v>
+        <v>16508.07641873588</v>
       </c>
       <c r="S16">
-        <v>0.0004113885097142962</v>
+        <v>0.07455097831284355</v>
       </c>
       <c r="T16">
-        <v>0.0004113885097142962</v>
+        <v>0.08285877288605432</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>114.700188302812</v>
+        <v>168.738088</v>
       </c>
       <c r="H17">
-        <v>114.700188302812</v>
+        <v>506.214264</v>
       </c>
       <c r="I17">
-        <v>0.1509186184424036</v>
+        <v>0.2051407166780708</v>
       </c>
       <c r="J17">
-        <v>0.1509186184424036</v>
+        <v>0.2275871848033678</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.0721803891926332</v>
+        <v>18.75506266666667</v>
       </c>
       <c r="N17">
-        <v>0.0721803891926332</v>
+        <v>56.265188</v>
       </c>
       <c r="O17">
-        <v>0.002494010937866957</v>
+        <v>0.6270167760332644</v>
       </c>
       <c r="P17">
-        <v>0.002494010937866957</v>
+        <v>0.62815724856322</v>
       </c>
       <c r="Q17">
-        <v>8.279104232165285</v>
+        <v>3164.693414693515</v>
       </c>
       <c r="R17">
-        <v>8.279104232165285</v>
+        <v>28482.24073224163</v>
       </c>
       <c r="S17">
-        <v>0.0003763926851231246</v>
+        <v>0.1286266708046373</v>
       </c>
       <c r="T17">
-        <v>0.0003763926851231246</v>
+        <v>0.1429605398143326</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>114.700188302812</v>
+        <v>168.738088</v>
       </c>
       <c r="H18">
-        <v>114.700188302812</v>
+        <v>506.214264</v>
       </c>
       <c r="I18">
-        <v>0.1509186184424036</v>
+        <v>0.2051407166780708</v>
       </c>
       <c r="J18">
-        <v>0.1509186184424036</v>
+        <v>0.2275871848033678</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.0164606016034156</v>
+        <v>0.09092433333333333</v>
       </c>
       <c r="N18">
-        <v>0.0164606016034156</v>
+        <v>0.272773</v>
       </c>
       <c r="O18">
-        <v>0.0005687544899935063</v>
+        <v>0.003039770293648031</v>
       </c>
       <c r="P18">
-        <v>0.0005687544899935063</v>
+        <v>0.003045299291674547</v>
       </c>
       <c r="Q18">
-        <v>1.888034103489338</v>
+        <v>15.34239815934133</v>
       </c>
       <c r="R18">
-        <v>1.888034103489338</v>
+        <v>138.081583434072</v>
       </c>
       <c r="S18">
-        <v>8.583564186273386E-05</v>
+        <v>0.0006235806565756668</v>
       </c>
       <c r="T18">
-        <v>8.583564186273386E-05</v>
+        <v>0.0006930710926759001</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>114.700188302812</v>
+        <v>168.738088</v>
       </c>
       <c r="H19">
-        <v>114.700188302812</v>
+        <v>506.214264</v>
       </c>
       <c r="I19">
-        <v>0.1509186184424036</v>
+        <v>0.2051407166780708</v>
       </c>
       <c r="J19">
-        <v>0.1509186184424036</v>
+        <v>0.2275871848033678</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M19">
-        <v>10.6364862150641</v>
+        <v>0.0902555</v>
       </c>
       <c r="N19">
-        <v>10.6364862150641</v>
+        <v>0.180511</v>
       </c>
       <c r="O19">
-        <v>0.3675169011633482</v>
+        <v>0.003017409946054226</v>
       </c>
       <c r="P19">
-        <v>0.3675169011633482</v>
+        <v>0.002015265515426615</v>
       </c>
       <c r="Q19">
-        <v>1220.006971748116</v>
+        <v>15.229540501484</v>
       </c>
       <c r="R19">
-        <v>1220.006971748116</v>
+        <v>91.377243008904</v>
       </c>
       <c r="S19">
-        <v>0.05546514297780591</v>
+        <v>0.000618993638845103</v>
       </c>
       <c r="T19">
-        <v>0.05546514297780591</v>
+        <v>0.0004586486052872513</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>114.700188302812</v>
+        <v>125.5465903333333</v>
       </c>
       <c r="H20">
-        <v>114.700188302812</v>
+        <v>376.639771</v>
       </c>
       <c r="I20">
-        <v>0.1509186184424036</v>
+        <v>0.1526313224401841</v>
       </c>
       <c r="J20">
-        <v>0.1509186184424036</v>
+        <v>0.1693322200949974</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>18.1581705777213</v>
+        <v>0.07266549999999999</v>
       </c>
       <c r="N20">
-        <v>18.1581705777213</v>
+        <v>0.145331</v>
       </c>
       <c r="O20">
-        <v>0.6274096958888786</v>
+        <v>0.002429343391095317</v>
       </c>
       <c r="P20">
-        <v>0.6274096958888786</v>
+        <v>0.001622508061129047</v>
       </c>
       <c r="Q20">
-        <v>2082.745584499214</v>
+        <v>9.122905759866832</v>
       </c>
       <c r="R20">
-        <v>2082.745584499214</v>
+        <v>54.73743455920099</v>
       </c>
       <c r="S20">
-        <v>0.09468780450091818</v>
+        <v>0.0003707938944441995</v>
       </c>
       <c r="T20">
-        <v>0.09468780450091818</v>
+        <v>0.0002747428921130113</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>114.700188302812</v>
+        <v>125.5465903333333</v>
       </c>
       <c r="H21">
-        <v>114.700188302812</v>
+        <v>376.639771</v>
       </c>
       <c r="I21">
-        <v>0.1509186184424036</v>
+        <v>0.1526313224401841</v>
       </c>
       <c r="J21">
-        <v>0.1509186184424036</v>
+        <v>0.1693322200949974</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.0581908429145628</v>
+        <v>0.03238966666666667</v>
       </c>
       <c r="N21">
-        <v>0.0581908429145628</v>
+        <v>0.09716900000000001</v>
       </c>
       <c r="O21">
-        <v>0.002010637519912812</v>
+        <v>0.001082847054743268</v>
       </c>
       <c r="P21">
-        <v>0.002010637519912812</v>
+        <v>0.001084816630944866</v>
       </c>
       <c r="Q21">
-        <v>6.674500639799707</v>
+        <v>4.066412212033223</v>
       </c>
       <c r="R21">
-        <v>6.674500639799707</v>
+        <v>36.597709908299</v>
       </c>
       <c r="S21">
-        <v>0.0003034426366937024</v>
+        <v>0.0001652763779659234</v>
       </c>
       <c r="T21">
-        <v>0.0003034426366937024</v>
+        <v>0.0001836944085138697</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>24.2800972262216</v>
+        <v>125.5465903333333</v>
       </c>
       <c r="H22">
-        <v>24.2800972262216</v>
+        <v>376.639771</v>
       </c>
       <c r="I22">
-        <v>0.03194692862538889</v>
+        <v>0.1526313224401841</v>
       </c>
       <c r="J22">
-        <v>0.03194692862538889</v>
+        <v>0.1693322200949974</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.0721803891926332</v>
+        <v>10.87028266666667</v>
       </c>
       <c r="N22">
-        <v>0.0721803891926332</v>
+        <v>32.610848</v>
       </c>
       <c r="O22">
-        <v>0.002494010937866957</v>
+        <v>0.3634138532811946</v>
       </c>
       <c r="P22">
-        <v>0.002494010937866957</v>
+        <v>0.364074861937605</v>
       </c>
       <c r="Q22">
-        <v>1.752546867423649</v>
+        <v>1364.726924759534</v>
       </c>
       <c r="R22">
-        <v>1.752546867423649</v>
+        <v>12282.54232283581</v>
       </c>
       <c r="S22">
-        <v>7.967598942297491E-05</v>
+        <v>0.05546833701939177</v>
       </c>
       <c r="T22">
-        <v>7.967598942297491E-05</v>
+        <v>0.06164960465267431</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>24.2800972262216</v>
+        <v>125.5465903333333</v>
       </c>
       <c r="H23">
-        <v>24.2800972262216</v>
+        <v>376.639771</v>
       </c>
       <c r="I23">
-        <v>0.03194692862538889</v>
+        <v>0.1526313224401841</v>
       </c>
       <c r="J23">
-        <v>0.03194692862538889</v>
+        <v>0.1693322200949974</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.0164606016034156</v>
+        <v>18.75506266666667</v>
       </c>
       <c r="N23">
-        <v>0.0164606016034156</v>
+        <v>56.265188</v>
       </c>
       <c r="O23">
-        <v>0.0005687544899935063</v>
+        <v>0.6270167760332644</v>
       </c>
       <c r="P23">
-        <v>0.0005687544899935063</v>
+        <v>0.62815724856322</v>
       </c>
       <c r="Q23">
-        <v>0.39966500733303</v>
+        <v>2354.634169287994</v>
       </c>
       <c r="R23">
-        <v>0.39966500733303</v>
+        <v>21191.70752359195</v>
       </c>
       <c r="S23">
-        <v>1.8169959097192E-05</v>
+        <v>0.09570239971813786</v>
       </c>
       <c r="T23">
-        <v>1.8169959097192E-05</v>
+        <v>0.1063672614679752</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>24.2800972262216</v>
+        <v>125.5465903333333</v>
       </c>
       <c r="H24">
-        <v>24.2800972262216</v>
+        <v>376.639771</v>
       </c>
       <c r="I24">
-        <v>0.03194692862538889</v>
+        <v>0.1526313224401841</v>
       </c>
       <c r="J24">
-        <v>0.03194692862538889</v>
+        <v>0.1693322200949974</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.6364862150641</v>
+        <v>0.09092433333333333</v>
       </c>
       <c r="N24">
-        <v>10.6364862150641</v>
+        <v>0.272773</v>
       </c>
       <c r="O24">
-        <v>0.3675169011633482</v>
+        <v>0.003039770293648031</v>
       </c>
       <c r="P24">
-        <v>0.3675169011633482</v>
+        <v>0.003045299291674547</v>
       </c>
       <c r="Q24">
-        <v>258.2549194471221</v>
+        <v>11.41524002833144</v>
       </c>
       <c r="R24">
-        <v>258.2549194471221</v>
+        <v>102.737160254983</v>
       </c>
       <c r="S24">
-        <v>0.01174103621008959</v>
+        <v>0.0004639641598338856</v>
       </c>
       <c r="T24">
-        <v>0.01174103621008959</v>
+        <v>0.000515667289912974</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>24.2800972262216</v>
+        <v>125.5465903333333</v>
       </c>
       <c r="H25">
-        <v>24.2800972262216</v>
+        <v>376.639771</v>
       </c>
       <c r="I25">
-        <v>0.03194692862538889</v>
+        <v>0.1526313224401841</v>
       </c>
       <c r="J25">
-        <v>0.03194692862538889</v>
+        <v>0.1693322200949974</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M25">
-        <v>18.1581705777213</v>
+        <v>0.0902555</v>
       </c>
       <c r="N25">
-        <v>18.1581705777213</v>
+        <v>0.180511</v>
       </c>
       <c r="O25">
-        <v>0.6274096958888786</v>
+        <v>0.003017409946054226</v>
       </c>
       <c r="P25">
-        <v>0.6274096958888786</v>
+        <v>0.002015265515426615</v>
       </c>
       <c r="Q25">
-        <v>440.8821470773896</v>
+        <v>11.33127028383017</v>
       </c>
       <c r="R25">
-        <v>440.8821470773896</v>
+        <v>67.987621702981</v>
       </c>
       <c r="S25">
-        <v>0.02004381277343896</v>
+        <v>0.000460551270410421</v>
       </c>
       <c r="T25">
-        <v>0.02004381277343896</v>
+        <v>0.0003412493838080779</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>24.2800972262216</v>
+        <v>26.04865166666667</v>
       </c>
       <c r="H26">
-        <v>24.2800972262216</v>
+        <v>78.145955</v>
       </c>
       <c r="I26">
-        <v>0.03194692862538889</v>
+        <v>0.03166824476165348</v>
       </c>
       <c r="J26">
-        <v>0.03194692862538889</v>
+        <v>0.03513337961219652</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.0581908429145628</v>
+        <v>0.07266549999999999</v>
       </c>
       <c r="N26">
-        <v>0.0581908429145628</v>
+        <v>0.145331</v>
       </c>
       <c r="O26">
-        <v>0.002010637519912812</v>
+        <v>0.002429343391095317</v>
       </c>
       <c r="P26">
-        <v>0.002010637519912812</v>
+        <v>0.001622508061129047</v>
       </c>
       <c r="Q26">
-        <v>1.412879323641373</v>
+        <v>1.892838297684167</v>
       </c>
       <c r="R26">
-        <v>1.412879323641373</v>
+        <v>11.357029786105</v>
       </c>
       <c r="S26">
-        <v>6.423369334018354E-05</v>
+        <v>7.693304111931178E-05</v>
       </c>
       <c r="T26">
-        <v>6.423369334018354E-05</v>
+        <v>5.700419163549575E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>196.779467597518</v>
+        <v>26.04865166666667</v>
       </c>
       <c r="H27">
-        <v>196.779467597518</v>
+        <v>78.145955</v>
       </c>
       <c r="I27">
-        <v>0.2589157509423293</v>
+        <v>0.03166824476165348</v>
       </c>
       <c r="J27">
-        <v>0.2589157509423293</v>
+        <v>0.03513337961219652</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.0721803891926332</v>
+        <v>0.03238966666666667</v>
       </c>
       <c r="N27">
-        <v>0.0721803891926332</v>
+        <v>0.09716900000000001</v>
       </c>
       <c r="O27">
-        <v>0.002494010937866957</v>
+        <v>0.001082847054743268</v>
       </c>
       <c r="P27">
-        <v>0.002494010937866957</v>
+        <v>0.001084816630944866</v>
       </c>
       <c r="Q27">
-        <v>14.203618556308</v>
+        <v>0.8437071445994446</v>
       </c>
       <c r="R27">
-        <v>14.203618556308</v>
+        <v>7.593364301395001</v>
       </c>
       <c r="S27">
-        <v>0.0006457387148362063</v>
+        <v>3.429186556904541E-05</v>
       </c>
       <c r="T27">
-        <v>0.0006457387148362063</v>
+        <v>3.811327450461008E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,60 +2146,60 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>196.779467597518</v>
+        <v>26.04865166666667</v>
       </c>
       <c r="H28">
-        <v>196.779467597518</v>
+        <v>78.145955</v>
       </c>
       <c r="I28">
-        <v>0.2589157509423293</v>
+        <v>0.03166824476165348</v>
       </c>
       <c r="J28">
-        <v>0.2589157509423293</v>
+        <v>0.03513337961219652</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.0164606016034156</v>
+        <v>10.87028266666667</v>
       </c>
       <c r="N28">
-        <v>0.0164606016034156</v>
+        <v>32.610848</v>
       </c>
       <c r="O28">
-        <v>0.0005687544899935063</v>
+        <v>0.3634138532811946</v>
       </c>
       <c r="P28">
-        <v>0.0005687544899935063</v>
+        <v>0.364074861937605</v>
       </c>
       <c r="Q28">
-        <v>3.239108419854973</v>
+        <v>283.1562067022045</v>
       </c>
       <c r="R28">
-        <v>3.239108419854973</v>
+        <v>2548.40586031984</v>
       </c>
       <c r="S28">
-        <v>0.0001472594958784902</v>
+        <v>0.0115086788554845</v>
       </c>
       <c r="T28">
-        <v>0.0001472594958784902</v>
+        <v>0.01279118033171191</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,60 +2208,60 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>196.779467597518</v>
+        <v>26.04865166666667</v>
       </c>
       <c r="H29">
-        <v>196.779467597518</v>
+        <v>78.145955</v>
       </c>
       <c r="I29">
-        <v>0.2589157509423293</v>
+        <v>0.03166824476165348</v>
       </c>
       <c r="J29">
-        <v>0.2589157509423293</v>
+        <v>0.03513337961219652</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>10.6364862150641</v>
+        <v>18.75506266666667</v>
       </c>
       <c r="N29">
-        <v>10.6364862150641</v>
+        <v>56.265188</v>
       </c>
       <c r="O29">
-        <v>0.3675169011633482</v>
+        <v>0.6270167760332644</v>
       </c>
       <c r="P29">
-        <v>0.3675169011633482</v>
+        <v>0.62815724856322</v>
       </c>
       <c r="Q29">
-        <v>2093.042094508653</v>
+        <v>488.5440943905045</v>
       </c>
       <c r="R29">
-        <v>2093.042094508653</v>
+        <v>4396.89684951454</v>
       </c>
       <c r="S29">
-        <v>0.09515591444870612</v>
+        <v>0.01985652073308428</v>
       </c>
       <c r="T29">
-        <v>0.09515591444870612</v>
+        <v>0.02206928706992449</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,117 +2270,489 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>196.779467597518</v>
+        <v>26.04865166666667</v>
       </c>
       <c r="H30">
-        <v>196.779467597518</v>
+        <v>78.145955</v>
       </c>
       <c r="I30">
-        <v>0.2589157509423293</v>
+        <v>0.03166824476165348</v>
       </c>
       <c r="J30">
-        <v>0.2589157509423293</v>
+        <v>0.03513337961219652</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>18.1581705777213</v>
+        <v>0.09092433333333333</v>
       </c>
       <c r="N30">
-        <v>18.1581705777213</v>
+        <v>0.272773</v>
       </c>
       <c r="O30">
-        <v>0.6274096958888786</v>
+        <v>0.003039770293648031</v>
       </c>
       <c r="P30">
-        <v>0.6274096958888786</v>
+        <v>0.003045299291674547</v>
       </c>
       <c r="Q30">
-        <v>3573.155138828913</v>
+        <v>2.368456287023889</v>
       </c>
       <c r="R30">
-        <v>3573.155138828913</v>
+        <v>21.316106583215</v>
       </c>
       <c r="S30">
-        <v>0.1624462525595675</v>
+        <v>9.626418967844911E-05</v>
       </c>
       <c r="T30">
-        <v>0.1624462525595675</v>
+        <v>0.000106991656047155</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>26.04865166666667</v>
+      </c>
+      <c r="H31">
+        <v>78.145955</v>
+      </c>
+      <c r="I31">
+        <v>0.03166824476165348</v>
+      </c>
+      <c r="J31">
+        <v>0.03513337961219652</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.5</v>
+      </c>
+      <c r="M31">
+        <v>0.0902555</v>
+      </c>
+      <c r="N31">
+        <v>0.180511</v>
+      </c>
+      <c r="O31">
+        <v>0.003017409946054226</v>
+      </c>
+      <c r="P31">
+        <v>0.002015265515426615</v>
+      </c>
+      <c r="Q31">
+        <v>2.351034080500833</v>
+      </c>
+      <c r="R31">
+        <v>14.106204483005</v>
+      </c>
+      <c r="S31">
+        <v>9.555607671789287E-05</v>
+      </c>
+      <c r="T31">
+        <v>7.080308837285213E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>214.7823105</v>
+      </c>
+      <c r="H32">
+        <v>429.564621</v>
+      </c>
+      <c r="I32">
+        <v>0.2611182669424459</v>
+      </c>
+      <c r="J32">
+        <v>0.1931265271191877</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.07266549999999999</v>
+      </c>
+      <c r="N32">
+        <v>0.145331</v>
+      </c>
+      <c r="O32">
+        <v>0.002429343391095317</v>
+      </c>
+      <c r="P32">
+        <v>0.001622508061129047</v>
+      </c>
+      <c r="Q32">
+        <v>15.60726398363775</v>
+      </c>
+      <c r="R32">
+        <v>62.42905593455099</v>
+      </c>
+      <c r="S32">
+        <v>0.0006343459360908937</v>
+      </c>
+      <c r="T32">
+        <v>0.0003133493470687395</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>214.7823105</v>
+      </c>
+      <c r="H33">
+        <v>429.564621</v>
+      </c>
+      <c r="I33">
+        <v>0.2611182669424459</v>
+      </c>
+      <c r="J33">
+        <v>0.1931265271191877</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.03238966666666667</v>
+      </c>
+      <c r="N33">
+        <v>0.09716900000000001</v>
+      </c>
+      <c r="O33">
+        <v>0.001082847054743268</v>
+      </c>
+      <c r="P33">
+        <v>0.001084816630944866</v>
+      </c>
+      <c r="Q33">
+        <v>6.9567274429915</v>
+      </c>
+      <c r="R33">
+        <v>41.740364657949</v>
+      </c>
+      <c r="S33">
+        <v>0.0002827511462982941</v>
+      </c>
+      <c r="T33">
+        <v>0.0002095068684955196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>214.7823105</v>
+      </c>
+      <c r="H34">
+        <v>429.564621</v>
+      </c>
+      <c r="I34">
+        <v>0.2611182669424459</v>
+      </c>
+      <c r="J34">
+        <v>0.1931265271191877</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>10.87028266666667</v>
+      </c>
+      <c r="N34">
+        <v>32.610848</v>
+      </c>
+      <c r="O34">
+        <v>0.3634138532811946</v>
+      </c>
+      <c r="P34">
+        <v>0.364074861937605</v>
+      </c>
+      <c r="Q34">
+        <v>2334.744426934768</v>
+      </c>
+      <c r="R34">
+        <v>14008.46656160861</v>
+      </c>
+      <c r="S34">
+        <v>0.09489399555166186</v>
+      </c>
+      <c r="T34">
+        <v>0.07031251369740739</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>214.7823105</v>
+      </c>
+      <c r="H35">
+        <v>429.564621</v>
+      </c>
+      <c r="I35">
+        <v>0.2611182669424459</v>
+      </c>
+      <c r="J35">
+        <v>0.1931265271191877</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>18.75506266666667</v>
+      </c>
+      <c r="N35">
+        <v>56.265188</v>
+      </c>
+      <c r="O35">
+        <v>0.6270167760332644</v>
+      </c>
+      <c r="P35">
+        <v>0.62815724856322</v>
+      </c>
+      <c r="Q35">
+        <v>4028.255693118958</v>
+      </c>
+      <c r="R35">
+        <v>24169.53415871375</v>
+      </c>
+      <c r="S35">
+        <v>0.1637255339016458</v>
+      </c>
+      <c r="T35">
+        <v>0.121313827899759</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>196.779467597518</v>
-      </c>
-      <c r="H31">
-        <v>196.779467597518</v>
-      </c>
-      <c r="I31">
-        <v>0.2589157509423293</v>
-      </c>
-      <c r="J31">
-        <v>0.2589157509423293</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.0581908429145628</v>
-      </c>
-      <c r="N31">
-        <v>0.0581908429145628</v>
-      </c>
-      <c r="O31">
-        <v>0.002010637519912812</v>
-      </c>
-      <c r="P31">
-        <v>0.002010637519912812</v>
-      </c>
-      <c r="Q31">
-        <v>11.45076308777847</v>
-      </c>
-      <c r="R31">
-        <v>11.45076308777847</v>
-      </c>
-      <c r="S31">
-        <v>0.0005205857233410484</v>
-      </c>
-      <c r="T31">
-        <v>0.0005205857233410484</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>214.7823105</v>
+      </c>
+      <c r="H36">
+        <v>429.564621</v>
+      </c>
+      <c r="I36">
+        <v>0.2611182669424459</v>
+      </c>
+      <c r="J36">
+        <v>0.1931265271191877</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.09092433333333333</v>
+      </c>
+      <c r="N36">
+        <v>0.272773</v>
+      </c>
+      <c r="O36">
+        <v>0.003039770293648031</v>
+      </c>
+      <c r="P36">
+        <v>0.003045299291674547</v>
+      </c>
+      <c r="Q36">
+        <v>19.5289383940055</v>
+      </c>
+      <c r="R36">
+        <v>117.173630364033</v>
+      </c>
+      <c r="S36">
+        <v>0.0007937395509805037</v>
+      </c>
+      <c r="T36">
+        <v>0.0005881280762396274</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>214.7823105</v>
+      </c>
+      <c r="H37">
+        <v>429.564621</v>
+      </c>
+      <c r="I37">
+        <v>0.2611182669424459</v>
+      </c>
+      <c r="J37">
+        <v>0.1931265271191877</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0.5</v>
+      </c>
+      <c r="M37">
+        <v>0.0902555</v>
+      </c>
+      <c r="N37">
+        <v>0.180511</v>
+      </c>
+      <c r="O37">
+        <v>0.003017409946054226</v>
+      </c>
+      <c r="P37">
+        <v>0.002015265515426615</v>
+      </c>
+      <c r="Q37">
+        <v>19.38528482533275</v>
+      </c>
+      <c r="R37">
+        <v>77.541139301331</v>
+      </c>
+      <c r="S37">
+        <v>0.0007879008557685788</v>
+      </c>
+      <c r="T37">
+        <v>0.000389201230217402</v>
       </c>
     </row>
   </sheetData>
